--- a/Experiments/Activation/33MeVTa_25Apr/Unfold/CleanBeam/STAYSL_PNNL/Beam_88_BeamCalcs.xlsx
+++ b/Experiments/Activation/33MeVTa_25Apr/Unfold/CleanBeam/STAYSL_PNNL/Beam_88_BeamCalcs.xlsx
@@ -695,6 +695,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,9 +715,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -716,14 +724,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -862,11 +862,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="438197112"/>
-        <c:axId val="438197504"/>
+        <c:axId val="242512760"/>
+        <c:axId val="242513152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="438197112"/>
+        <c:axId val="242512760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,12 +876,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="438197504"/>
+        <c:crossAx val="242513152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="438197504"/>
+        <c:axId val="242513152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +891,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="438197112"/>
+        <c:crossAx val="242512760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2082,11 +2082,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="438199072"/>
-        <c:axId val="438199464"/>
+        <c:axId val="242514720"/>
+        <c:axId val="242515112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="438199072"/>
+        <c:axId val="242514720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2096,12 +2096,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="438199464"/>
+        <c:crossAx val="242515112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="438199464"/>
+        <c:axId val="242515112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2112,7 +2112,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="438199072"/>
+        <c:crossAx val="242514720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2820,11 +2820,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="438201032"/>
-        <c:axId val="438201424"/>
+        <c:axId val="242516680"/>
+        <c:axId val="242517072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="438201032"/>
+        <c:axId val="242516680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2834,12 +2834,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="438201424"/>
+        <c:crossAx val="242517072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="438201424"/>
+        <c:axId val="242517072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2850,7 +2850,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="438201032"/>
+        <c:crossAx val="242516680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3168,11 +3168,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="438202208"/>
-        <c:axId val="438202600"/>
+        <c:axId val="242512368"/>
+        <c:axId val="242517856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="438202208"/>
+        <c:axId val="242512368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3182,12 +3182,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="438202600"/>
+        <c:crossAx val="242517856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="438202600"/>
+        <c:axId val="242517856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3198,7 +3198,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="438202208"/>
+        <c:crossAx val="242512368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3775,7 +3775,7 @@
       <c r="A4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="25">
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="J4" s="5"/>
@@ -3814,7 +3814,7 @@
       <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="26">
         <f>C3*C4*1000000/C5</f>
         <v>8.1556855761892653</v>
       </c>
@@ -4038,11 +4038,11 @@
       <c r="T11" s="5"/>
     </row>
     <row r="12" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="K12" s="5" t="s">
@@ -4070,7 +4070,7 @@
       <c r="A13" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="27">
         <v>5</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -4287,11 +4287,11 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
       <c r="K21" s="5"/>
@@ -4305,26 +4305,26 @@
         <v>Be</v>
       </c>
       <c r="R21" s="5">
-        <f>L6</f>
+        <f t="shared" ref="R21:T25" si="0">L6</f>
         <v>30.7</v>
       </c>
       <c r="S21" s="5">
-        <f>M6</f>
+        <f t="shared" si="0"/>
         <v>275</v>
       </c>
       <c r="T21" s="5">
-        <f>N6</f>
+        <f t="shared" si="0"/>
         <v>580</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="35">
         <v>5</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="29" t="s">
         <v>73</v>
       </c>
       <c r="H22" s="22"/>
@@ -4340,27 +4340,27 @@
         <v>C</v>
       </c>
       <c r="R22" s="5">
-        <f>L7</f>
+        <f t="shared" si="0"/>
         <v>10.3</v>
       </c>
       <c r="S22" s="5">
-        <f>M7</f>
+        <f t="shared" si="0"/>
         <v>128.4</v>
       </c>
       <c r="T22" s="5">
-        <f>N7</f>
+        <f t="shared" si="0"/>
         <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="30" t="s">
         <v>74</v>
       </c>
       <c r="B23" s="14">
         <f>(1-COS(RADIANS(B22)))/2*4*PI()</f>
         <v>2.3909417039326832E-2</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="31" t="s">
         <v>56</v>
       </c>
       <c r="H23" s="23"/>
@@ -4376,27 +4376,27 @@
         <v>Cu</v>
       </c>
       <c r="R23" s="5">
-        <f>L8</f>
+        <f t="shared" si="0"/>
         <v>1.72</v>
       </c>
       <c r="S23" s="5">
-        <f>M8</f>
+        <f t="shared" si="0"/>
         <v>41.7</v>
       </c>
       <c r="T23" s="5">
-        <f>N8</f>
+        <f t="shared" si="0"/>
         <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="33">
         <f>(1-COS(RADIANS(B22)))/2*4*PI()*C9</f>
         <v>4055347410.9690013</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="34" t="s">
         <v>60</v>
       </c>
       <c r="H24" s="23"/>
@@ -4412,15 +4412,15 @@
         <v>Mo</v>
       </c>
       <c r="R24" s="5">
-        <f>L9</f>
+        <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
       <c r="S24" s="5">
-        <f>M9</f>
+        <f t="shared" si="0"/>
         <v>26.5</v>
       </c>
       <c r="T24" s="5">
-        <f>N9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4438,15 +4438,15 @@
         <v>Ta</v>
       </c>
       <c r="R25" s="5">
-        <f>L10</f>
+        <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="S25" s="5">
-        <f>M10</f>
+        <f t="shared" si="0"/>
         <v>20.8</v>
       </c>
       <c r="T25" s="5">
-        <f>N10</f>
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
     </row>
@@ -4500,15 +4500,15 @@
         <v>Be+Cu</v>
       </c>
       <c r="Q28" s="5">
-        <f t="shared" ref="Q28:S29" si="0">M12</f>
+        <f t="shared" ref="Q28:S29" si="1">M12</f>
         <v>26.4</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4800000000000004</v>
       </c>
       <c r="S28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
     </row>
@@ -4524,15 +4524,15 @@
         <v>Be+Au</v>
       </c>
       <c r="Q29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.7</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.29</v>
       </c>
       <c r="S29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>111.4</v>
       </c>
     </row>

--- a/Experiments/Activation/33MeVTa_25Apr/Unfold/CleanBeam/STAYSL_PNNL/Beam_88_BeamCalcs.xlsx
+++ b/Experiments/Activation/33MeVTa_25Apr/Unfold/CleanBeam/STAYSL_PNNL/Beam_88_BeamCalcs.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>Meulders</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -257,9 +257,6 @@
     <t>n/s</t>
   </si>
   <si>
-    <t>Fluence on ETA</t>
-  </si>
-  <si>
     <t>Current Monitor Reading</t>
   </si>
   <si>
@@ -297,6 +294,33 @@
   </si>
   <si>
     <t>Simulated Solid Angle</t>
+  </si>
+  <si>
+    <t>thermal</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>eV)</t>
+  </si>
+  <si>
+    <t>epithermal</t>
+  </si>
+  <si>
+    <t>keV)</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>MeV)</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>Fluence on Exp</t>
   </si>
 </sst>
 </file>
@@ -862,11 +886,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="242512760"/>
-        <c:axId val="242513152"/>
+        <c:axId val="461963128"/>
+        <c:axId val="462865552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="242512760"/>
+        <c:axId val="461963128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,12 +900,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242513152"/>
+        <c:crossAx val="462865552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242513152"/>
+        <c:axId val="462865552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,13 +915,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242512760"/>
+        <c:crossAx val="461963128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2082,11 +2107,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="242514720"/>
-        <c:axId val="242515112"/>
+        <c:axId val="460569288"/>
+        <c:axId val="460569680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="242514720"/>
+        <c:axId val="460569288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2096,12 +2121,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242515112"/>
+        <c:crossAx val="460569680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242515112"/>
+        <c:axId val="460569680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2112,7 +2137,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242514720"/>
+        <c:crossAx val="460569288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2820,11 +2845,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="242516680"/>
-        <c:axId val="242517072"/>
+        <c:axId val="460571248"/>
+        <c:axId val="460571640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="242516680"/>
+        <c:axId val="460571248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2834,12 +2859,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242517072"/>
+        <c:crossAx val="460571640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242517072"/>
+        <c:axId val="460571640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2850,7 +2875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242516680"/>
+        <c:crossAx val="460571248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3168,11 +3193,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="242512368"/>
-        <c:axId val="242517856"/>
+        <c:axId val="460572424"/>
+        <c:axId val="460572816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="242512368"/>
+        <c:axId val="460572424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3182,12 +3207,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242517856"/>
+        <c:crossAx val="460572816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242517856"/>
+        <c:axId val="460572816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3198,7 +3223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242512368"/>
+        <c:crossAx val="460572424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3671,10 +3696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3755,7 +3780,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="7">
         <v>3206</v>
@@ -3773,7 +3798,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="25">
         <v>2.0000000000000002E-5</v>
@@ -3791,7 +3816,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="7">
         <v>7862</v>
@@ -3975,7 +4000,7 @@
         <v>1.6757220380268608E+16</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>7</v>
@@ -4039,7 +4064,7 @@
     </row>
     <row r="12" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="38"/>
@@ -4101,7 +4126,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="24">
         <v>2.5</v>
@@ -4147,7 +4172,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="13">
         <v>708.22</v>
@@ -4170,7 +4195,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="14">
         <f>2*PI()*(1-B16/(SQRT(B16^2+B14^2)))</f>
@@ -4202,7 +4227,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="14">
         <f>B17*C9</f>
@@ -4230,7 +4255,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B19" s="14">
         <f>C5*B18</f>
@@ -4288,7 +4313,7 @@
     </row>
     <row r="21" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="40"/>
       <c r="C21" s="41"/>
@@ -4319,13 +4344,13 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="35">
         <v>5</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -4354,7 +4379,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="14">
         <f>(1-COS(RADIANS(B22)))/2*4*PI()</f>
@@ -4513,8 +4538,21 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="4">
+        <v>193.99</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1525900</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -4534,6 +4572,199 @@
       <c r="S29" s="5">
         <f t="shared" si="1"/>
         <v>111.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="4">
+        <v>275.61</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2167900</v>
+      </c>
+      <c r="J30">
+        <v>110</v>
+      </c>
+      <c r="K30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="4">
+        <v>613100</v>
+      </c>
+      <c r="D31" s="4">
+        <v>4822600000</v>
+      </c>
+      <c r="J31">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="4">
+        <v>4415.5</v>
+      </c>
+      <c r="D32" s="4">
+        <v>34733000</v>
+      </c>
+      <c r="J32" t="s">
+        <v>75</v>
+      </c>
+      <c r="K32">
+        <v>20</v>
+      </c>
+      <c r="L32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C33" s="4">
+        <f>SUM(C29:C32)</f>
+        <v>617985.1</v>
+      </c>
+      <c r="D33" s="4">
+        <f>SUM(D29:D32)</f>
+        <v>4861026800</v>
+      </c>
+      <c r="J33" t="s">
+        <v>75</v>
+      </c>
+      <c r="K33">
+        <v>60</v>
+      </c>
+      <c r="L33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" s="4">
+        <v>1E-10</v>
+      </c>
+      <c r="C37" s="4">
+        <v>219.73</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1728400</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="4">
+        <v>9.2E-6</v>
+      </c>
+      <c r="C38" s="4">
+        <v>41.34</v>
+      </c>
+      <c r="D38" s="4">
+        <v>325180</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="4">
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="C39" s="4">
+        <v>18.57</v>
+      </c>
+      <c r="D39" s="4">
+        <v>146070</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B40" s="4">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="C40" s="4">
+        <v>128.93</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1014200</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B41" s="4">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C41" s="4">
+        <v>2064.6</v>
+      </c>
+      <c r="D41" s="4">
+        <v>16240000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B42" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="C42" s="4">
+        <v>117380</v>
+      </c>
+      <c r="D42" s="4">
+        <v>923340000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B43" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="C43" s="4">
+        <v>252080</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1982900000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B44" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C44" s="4">
+        <v>88392</v>
+      </c>
+      <c r="D44" s="4">
+        <v>695290000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B45" s="4">
+        <v>10</v>
+      </c>
+      <c r="C45" s="4">
+        <v>152760</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1201600000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B46" s="4">
+        <v>24</v>
+      </c>
+      <c r="C46" s="4">
+        <v>474.06</v>
+      </c>
+      <c r="D46" s="4">
+        <v>3728900</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C47" s="4">
+        <f>SUM(C37:C46)</f>
+        <v>613559.23</v>
+      </c>
+      <c r="D47" s="4">
+        <f>SUM(D37:D46)</f>
+        <v>4826312750</v>
       </c>
     </row>
   </sheetData>
